--- a/figures/excel/JohanssonPerformances.xlsx
+++ b/figures/excel/JohanssonPerformances.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Documents\Thesis\AR-linked-data\figures\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F20A3758-6277-4D4D-A2E7-B139FFC07204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2D1C7-AF63-4861-BDCD-E3E1F003C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,6 +86,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF595959"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -111,10 +116,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.589776243703864E-2"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.89214042960132145"/>
-          <c:h val="0.72130431612715074"/>
+          <c:x val="0.10285521807626984"/>
+          <c:y val="0.125"/>
+          <c:w val="0.8551829739620902"/>
+          <c:h val="0.64723024205307667"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -435,6 +440,36 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frame rate (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5695278503164847E-2"/>
+              <c:y val="0.35347517290039659"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -540,9 +575,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.3131143471108351E-3"/>
+          <c:x val="6.0059139204112461E-2"/>
           <c:y val="0.84143372703412078"/>
-          <c:w val="0.99304228736053424"/>
+          <c:w val="0.93529626165878588"/>
           <c:h val="0.14930664916885389"/>
         </c:manualLayout>
       </c:layout>
@@ -634,10 +669,10 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>3297</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5498214" cy="2743200"/>
+    <xdr:ext cx="5498214" cy="2898345"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2">
@@ -960,11 +995,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="138" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
